--- a/biology/Biologie cellulaire et moléculaire/Famille_multigénique/Famille_multigénique.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Famille_multigénique/Famille_multigénique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Famille_multig%C3%A9nique</t>
+          <t>Famille_multigénique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une famille multigénique est un ensemble de gènes, au sein d'un même génome, qui présentent des homologies de séquences (on ne peut déterminer un pourcentage de ressemblance à partir duquel les gènes seront considérés comme homologues, contrairement aux protéines homologues qui doivent présenter au moins 20 % de similitude) issues d'un gène ancestral ayant subi une duplication, mutation et transposition (→ les protéines codées par ces gènes ont les mêmes fonctions, ex : opsines bleues, vertes, rouges). Ainsi les protéines produites par ces gènes auront globalement les mêmes fonctions, comme c'est par exemple le cas de l'hémoglobine et du CMH ou encore pour les différentes opsines constituant les différentes cellules photosensibles tapissant notre rétine (plus de 40 % de similitudes entre elles).
 Voici un tableau représentant la séquence d'ADN de différents gènes (attention, on ne parle pas ici d'allèles) codant trois hormones : la vasotocine (AVT), l'ocytocine (OT) et la vasopressine (AVP ou ADH) qui sont toutes trois localisées sur le chromosome 20 humain.
